--- a/config.xlsx
+++ b/config.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="707" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="待检查副本配置" sheetId="1" r:id="rId1"/>
-    <sheet name="请求URL配置" sheetId="4" r:id="rId2"/>
-    <sheet name="本地配置数据路径" sheetId="3" r:id="rId3"/>
-    <sheet name="使用本地配置数据" sheetId="5" r:id="rId4"/>
-    <sheet name="邮件配置" sheetId="2" r:id="rId5"/>
+    <sheet name="常量配置" sheetId="8" r:id="rId2"/>
+    <sheet name="请求URL配置" sheetId="4" r:id="rId3"/>
+    <sheet name="邮件配置" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>网址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,18 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否使用本地数据进行检查。填写1，检查时用本地数据进行判断，填写0，会自动从svn拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件列表，每行只写一个邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写本地配置文件路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,7 +201,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>发邮件邮箱名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收邮件邮箱列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1901515753@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>E:\M1_SVN\Market_build\lss\config\resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个地址写到配置文件的路径，一定要写正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码(收件箱不用填写）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>configDataPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写0代表不使用本地数据，使用svn自动拉取最新数据；填写1,代表使用本地的配置文件数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isUseLocalData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -278,11 +315,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -300,6 +340,125 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>617721</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>94744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="161925"/>
+          <a:ext cx="11228571" cy="4047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>17684</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66675" y="4314825"/>
+          <a:ext cx="10923809" cy="4038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>112922</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>18546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66675" y="8677275"/>
+          <a:ext cx="11019047" cy="4028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -592,14 +751,14 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="7.125" customWidth="1"/>
     <col min="5" max="5" width="7.25" customWidth="1"/>
     <col min="8" max="8" width="25.5" bestFit="1" customWidth="1"/>
@@ -608,7 +767,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -1022,10 +1181,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1037,7 +1251,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1057,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>8420</v>
@@ -1074,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>8420</v>
@@ -1091,7 +1305,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>8420</v>
@@ -1108,7 +1322,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>8420</v>
@@ -1131,162 +1345,141 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="47.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>39</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A5:A14" r:id="rId2" display="liuyj1@163.com"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A6" r:id="rId4"/>
+    <hyperlink ref="A7" r:id="rId5"/>
+    <hyperlink ref="A8" r:id="rId6" display="liuyj5@163.com"/>
+    <hyperlink ref="A9" r:id="rId7" display="liuyj6@163.com"/>
+    <hyperlink ref="A10" r:id="rId8" display="liuyj7@163.com"/>
+    <hyperlink ref="A11" r:id="rId9" display="liuyj8@163.com"/>
+    <hyperlink ref="A12" r:id="rId10"/>
+    <hyperlink ref="A13" r:id="rId11"/>
+    <hyperlink ref="A14" r:id="rId12"/>
+    <hyperlink ref="A15" r:id="rId13"/>
+    <hyperlink ref="A16" r:id="rId14"/>
+    <hyperlink ref="A2" r:id="rId15"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="76.375" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="R62" sqref="R62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3:A12" r:id="rId2" display="liuyj1@163.com"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6" display="liuyj5@163.com"/>
-    <hyperlink ref="A7" r:id="rId7" display="liuyj6@163.com"/>
-    <hyperlink ref="A8" r:id="rId8" display="liuyj7@163.com"/>
-    <hyperlink ref="A9" r:id="rId9" display="liuyj8@163.com"/>
-    <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
-    <hyperlink ref="A13" r:id="rId13"/>
-    <hyperlink ref="A14" r:id="rId14"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/config.xlsx
+++ b/config.xlsx
@@ -225,10 +225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E:\M1_SVN\Market_build\lss\config\resource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>这个地址写到配置文件的路径，一定要写正确</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,6 +246,10 @@
   </si>
   <si>
     <t>isUseLocalData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\M1_SVN\Market_build\lss\config\resource\</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -751,7 +751,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1184,7 +1184,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1207,24 +1207,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
         <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1239,7 +1239,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1364,7 +1364,7 @@
         <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -1372,7 +1372,7 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">

--- a/config.xlsx
+++ b/config.xlsx
@@ -1027,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1086,7 +1086,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>321002</v>
+        <v>321018</v>
       </c>
       <c r="D2" s="2">
         <v>6</v>
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="2">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2">
         <v>1000</v>
@@ -1106,6 +1106,136 @@
       <c r="J2" s="2">
         <v>0.02</v>
       </c>
+      <c r="K2" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>321018</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>72</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>321018</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>75</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="K4" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>321018</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>79</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="K5" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1120,7 +1250,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1157,7 +1287,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
@@ -1185,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:E15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1297,7 +1427,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="707"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="707" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="待检查副本配置" sheetId="1" r:id="rId1"/>
@@ -1029,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1098,7 +1098,7 @@
         <v>70</v>
       </c>
       <c r="G2" s="2">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="I2" s="2">
         <v>0.02</v>
@@ -1127,7 +1127,7 @@
         <v>72</v>
       </c>
       <c r="G3" s="2">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="I3" s="2">
         <v>0.02</v>
@@ -1156,7 +1156,7 @@
         <v>75</v>
       </c>
       <c r="G4" s="2">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="I4" s="2">
         <v>0.02</v>
@@ -1185,7 +1185,7 @@
         <v>79</v>
       </c>
       <c r="G5" s="2">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="I5" s="2">
         <v>0.02</v>
@@ -1198,36 +1198,236 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>321018</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>70</v>
+      </c>
+      <c r="G6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="K6" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>321018</v>
+      </c>
+      <c r="D7" s="2">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>72</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="K7" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>321018</v>
+      </c>
+      <c r="D8" s="2">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>75</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="K8" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>321018</v>
+      </c>
+      <c r="D9" s="2">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>79</v>
+      </c>
+      <c r="G9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="K9" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>321018</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>78</v>
+      </c>
+      <c r="G10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="K10" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>321018</v>
+      </c>
+      <c r="D11" s="2">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>76</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="K11" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>321018</v>
+      </c>
+      <c r="D12" s="2">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>74</v>
+      </c>
+      <c r="G12" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="K12" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>321018</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>73</v>
+      </c>
+      <c r="G13" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="K13" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="J14" s="2"/>
@@ -1249,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1298,7 +1498,7 @@
         <v>43</v>
       </c>
       <c r="B4" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
@@ -1316,7 +1516,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:A52"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
